--- a/template Excel/HR/Interview.xlsx
+++ b/template Excel/HR/Interview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D04390B-7340-47E3-8DB2-817E7C73BCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03D514C-7767-47FC-90DE-D8DC659F5D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BC47BA27-F0C5-4A9A-B0B4-0C38FBABA70B}"/>
   </bookViews>
@@ -47,15 +47,6 @@
     <t>InterviewDate</t>
   </si>
   <si>
-    <t xml:space="preserve"> InterviewResult</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HireDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> InterviewerId</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -63,6 +54,15 @@
   </si>
   <si>
     <t>Cancel</t>
+  </si>
+  <si>
+    <t>InterviewResult</t>
+  </si>
+  <si>
+    <t>HireDate</t>
+  </si>
+  <si>
+    <t>InterviewerId</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>45301</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
         <v>45323</v>
@@ -506,7 +506,7 @@
         <v>45340</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
         <v>45352</v>
@@ -526,7 +526,7 @@
         <v>45381</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
         <v>45352</v>
@@ -546,7 +546,7 @@
         <v>45390</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
         <v>45413</v>
@@ -566,7 +566,7 @@
         <v>45433</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
         <v>45444</v>
@@ -586,7 +586,7 @@
         <v>45468</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2">
         <v>45352</v>
@@ -606,7 +606,7 @@
         <v>45488</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
         <v>45505</v>
@@ -626,7 +626,7 @@
         <v>45514</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
         <v>45536</v>
@@ -646,7 +646,7 @@
         <v>45550</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2">
         <v>45352</v>
@@ -666,7 +666,7 @@
         <v>45592</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2">
         <v>45611</v>

--- a/template Excel/HR/Interview.xlsx
+++ b/template Excel/HR/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03D514C-7767-47FC-90DE-D8DC659F5D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD0950-6B64-4869-A855-8BB3DA6A5316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BC47BA27-F0C5-4A9A-B0B4-0C38FBABA70B}"/>
   </bookViews>

--- a/template Excel/HR/Interview.xlsx
+++ b/template Excel/HR/Interview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD0950-6B64-4869-A855-8BB3DA6A5316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA1C0DB-9B9E-450A-83E6-643F5597D6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BC47BA27-F0C5-4A9A-B0B4-0C38FBABA70B}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{BC47BA27-F0C5-4A9A-B0B4-0C38FBABA70B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
